--- a/Peakfinder Results/OVERVIEW.xlsx
+++ b/Peakfinder Results/OVERVIEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,32 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>RMS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>tau</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
         </is>
       </c>
     </row>
@@ -502,26 +517,33 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.57</v>
+        <v>12.71</v>
       </c>
       <c r="E2" t="n">
-        <v>34.3</v>
+        <v>34.14</v>
       </c>
       <c r="F2" t="n">
-        <v>21.73</v>
+        <v>21.43</v>
       </c>
       <c r="G2" t="n">
-        <v>74.25</v>
+        <v>72.5</v>
       </c>
       <c r="H2" t="n">
-        <v>20.15</v>
+        <v>71.45</v>
       </c>
       <c r="I2" t="n">
-        <v>174.88</v>
+        <v>65.37</v>
       </c>
       <c r="J2" t="n">
-        <v>8264.58</v>
-      </c>
+        <v>29.22</v>
+      </c>
+      <c r="K2" t="n">
+        <v>176.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8086.59</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -543,22 +565,31 @@
         <v>11.57</v>
       </c>
       <c r="E3" t="n">
-        <v>30.4</v>
+        <v>30.43</v>
       </c>
       <c r="F3" t="n">
-        <v>18.83</v>
+        <v>18.86</v>
       </c>
       <c r="G3" t="n">
-        <v>72.02</v>
+        <v>73.29000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>19.37</v>
+        <v>73.59</v>
       </c>
       <c r="I3" t="n">
-        <v>167.13</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>8111.62</v>
+        <v>29.38</v>
+      </c>
+      <c r="K3" t="n">
+        <v>168.13</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8297.42</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-1.08</v>
       </c>
     </row>
     <row r="4">
@@ -587,16 +618,25 @@
         <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>56.67</v>
+        <v>56.86</v>
       </c>
       <c r="H4" t="n">
-        <v>15.24</v>
+        <v>57.15</v>
       </c>
       <c r="I4" t="n">
-        <v>179.19</v>
+        <v>50.64</v>
       </c>
       <c r="J4" t="n">
-        <v>6654.48</v>
+        <v>22.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>181.66</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6769.88</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21.58</v>
       </c>
     </row>
     <row r="5">
@@ -616,25 +656,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11.2</v>
+        <v>11.29</v>
       </c>
       <c r="E5" t="n">
-        <v>30.13</v>
+        <v>30.14</v>
       </c>
       <c r="F5" t="n">
-        <v>18.93</v>
+        <v>18.86</v>
       </c>
       <c r="G5" t="n">
-        <v>80.5</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>22.05</v>
+        <v>78.81</v>
       </c>
       <c r="I5" t="n">
-        <v>162.77</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>9212.77</v>
+        <v>32.29</v>
+      </c>
+      <c r="K5" t="n">
+        <v>165.31</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9050.530000000001</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -654,25 +703,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11.37</v>
+        <v>11.43</v>
       </c>
       <c r="E6" t="n">
-        <v>29.73</v>
+        <v>29.71</v>
       </c>
       <c r="F6" t="n">
-        <v>18.37</v>
+        <v>18.29</v>
       </c>
       <c r="G6" t="n">
-        <v>75.47</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>21.24</v>
+        <v>74.47</v>
       </c>
       <c r="I6" t="n">
-        <v>169.23</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>9297.389999999999</v>
+        <v>30.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>166.21</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8995.629999999999</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-2.17</v>
       </c>
     </row>
     <row r="7">
@@ -692,25 +750,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10.63</v>
+        <v>10.57</v>
       </c>
       <c r="E7" t="n">
-        <v>31.37</v>
+        <v>31</v>
       </c>
       <c r="F7" t="n">
-        <v>20.73</v>
+        <v>20.43</v>
       </c>
       <c r="G7" t="n">
-        <v>79.75</v>
+        <v>79.14</v>
       </c>
       <c r="H7" t="n">
-        <v>22.23</v>
+        <v>79.26000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>161.74</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>9261.139999999999</v>
+        <v>32.73</v>
+      </c>
+      <c r="K7" t="n">
+        <v>159.14</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9095.33</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-9.16</v>
       </c>
     </row>
     <row r="8">
@@ -742,13 +809,22 @@
         <v>81.27</v>
       </c>
       <c r="H8" t="n">
-        <v>22.43</v>
+        <v>81.69</v>
       </c>
       <c r="I8" t="n">
+        <v>73.51000000000001</v>
+      </c>
+      <c r="J8" t="n">
+        <v>33.31</v>
+      </c>
+      <c r="K8" t="n">
         <v>177.51</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>9596.530000000001</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-12.09</v>
       </c>
     </row>
     <row r="9">
@@ -780,13 +856,22 @@
         <v>79.87</v>
       </c>
       <c r="H9" t="n">
-        <v>21.85</v>
+        <v>80.15000000000001</v>
       </c>
       <c r="I9" t="n">
+        <v>72.81999999999999</v>
+      </c>
+      <c r="J9" t="n">
+        <v>32.58</v>
+      </c>
+      <c r="K9" t="n">
         <v>164.19</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>9241.83</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-10.16</v>
       </c>
     </row>
     <row r="10">
@@ -815,16 +900,25 @@
         <v>18</v>
       </c>
       <c r="G10" t="n">
-        <v>69.45</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>19.44</v>
+        <v>69.2</v>
       </c>
       <c r="I10" t="n">
-        <v>171.95</v>
+        <v>58.88</v>
       </c>
       <c r="J10" t="n">
-        <v>8513.190000000001</v>
+        <v>28.28</v>
+      </c>
+      <c r="K10" t="n">
+        <v>170.38</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8327.26</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5.22</v>
       </c>
     </row>
     <row r="11">
@@ -844,25 +938,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12.47</v>
+        <v>12.43</v>
       </c>
       <c r="E11" t="n">
-        <v>29.2</v>
+        <v>29.14</v>
       </c>
       <c r="F11" t="n">
-        <v>16.73</v>
+        <v>16.71</v>
       </c>
       <c r="G11" t="n">
-        <v>56.2</v>
+        <v>56.86</v>
       </c>
       <c r="H11" t="n">
-        <v>15.3</v>
+        <v>57.18</v>
       </c>
       <c r="I11" t="n">
-        <v>184.74</v>
+        <v>50.78</v>
       </c>
       <c r="J11" t="n">
-        <v>6663.06</v>
+        <v>22.8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>179.51</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6687.61</v>
+      </c>
+      <c r="M11" t="n">
+        <v>21.58</v>
       </c>
     </row>
     <row r="12">
@@ -882,25 +985,34 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11.77</v>
+        <v>11.71</v>
       </c>
       <c r="E12" t="n">
-        <v>30.7</v>
+        <v>30.71</v>
       </c>
       <c r="F12" t="n">
-        <v>18.93</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>57.27</v>
+        <v>58.57</v>
       </c>
       <c r="H12" t="n">
-        <v>15.65</v>
+        <v>58.69</v>
       </c>
       <c r="I12" t="n">
-        <v>163.27</v>
+        <v>51.6</v>
       </c>
       <c r="J12" t="n">
-        <v>6965.03</v>
+        <v>23.43</v>
+      </c>
+      <c r="K12" t="n">
+        <v>165.11</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7193.61</v>
+      </c>
+      <c r="M12" t="n">
+        <v>19.21</v>
       </c>
     </row>
     <row r="13">
@@ -932,13 +1044,22 @@
         <v>64.59999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>17.26</v>
+        <v>65.04000000000001</v>
       </c>
       <c r="I13" t="n">
+        <v>58.13</v>
+      </c>
+      <c r="J13" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="K13" t="n">
         <v>169.51</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>7373.91</v>
+      </c>
+      <c r="M13" t="n">
+        <v>10.9</v>
       </c>
     </row>
     <row r="14">
@@ -961,22 +1082,31 @@
         <v>11.07</v>
       </c>
       <c r="E14" t="n">
-        <v>37.87</v>
+        <v>32.27</v>
       </c>
       <c r="F14" t="n">
-        <v>26.8</v>
+        <v>21.2</v>
       </c>
       <c r="G14" t="n">
-        <v>53</v>
+        <v>52.93</v>
       </c>
       <c r="H14" t="n">
-        <v>14.44</v>
+        <v>53.03</v>
       </c>
       <c r="I14" t="n">
-        <v>187.15</v>
+        <v>46.5</v>
       </c>
       <c r="J14" t="n">
-        <v>6331.02</v>
+        <v>21.02</v>
+      </c>
+      <c r="K14" t="n">
+        <v>219.45</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6408.42</v>
+      </c>
+      <c r="M14" t="n">
+        <v>26.99</v>
       </c>
     </row>
     <row r="15">
@@ -1008,13 +1138,22 @@
         <v>56.27</v>
       </c>
       <c r="H15" t="n">
-        <v>15.29</v>
+        <v>56.7</v>
       </c>
       <c r="I15" t="n">
+        <v>51.18</v>
+      </c>
+      <c r="J15" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="K15" t="n">
         <v>176.01</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6578.64</v>
+      </c>
+      <c r="M15" t="n">
+        <v>22.39</v>
       </c>
     </row>
     <row r="16">
@@ -1034,25 +1173,34 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10.53</v>
+        <v>10.43</v>
       </c>
       <c r="E16" t="n">
-        <v>30.13</v>
+        <v>30.14</v>
       </c>
       <c r="F16" t="n">
-        <v>19.6</v>
+        <v>19.71</v>
       </c>
       <c r="G16" t="n">
-        <v>58.92</v>
+        <v>59.86</v>
       </c>
       <c r="H16" t="n">
-        <v>15.8</v>
+        <v>60.2</v>
       </c>
       <c r="I16" t="n">
-        <v>182.79</v>
+        <v>53.23</v>
       </c>
       <c r="J16" t="n">
-        <v>6779.66</v>
+        <v>23.72</v>
+      </c>
+      <c r="K16" t="n">
+        <v>183.91</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6937.2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>17.44</v>
       </c>
     </row>
     <row r="17">
@@ -1072,25 +1220,34 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11.03</v>
+        <v>11</v>
       </c>
       <c r="E17" t="n">
-        <v>30.67</v>
+        <v>30.71</v>
       </c>
       <c r="F17" t="n">
-        <v>19.63</v>
+        <v>19.71</v>
       </c>
       <c r="G17" t="n">
-        <v>57.38</v>
+        <v>55.79</v>
       </c>
       <c r="H17" t="n">
-        <v>15.07</v>
+        <v>56.03</v>
       </c>
       <c r="I17" t="n">
-        <v>157.28</v>
+        <v>51.09</v>
       </c>
       <c r="J17" t="n">
-        <v>6322.44</v>
+        <v>21.86</v>
+      </c>
+      <c r="K17" t="n">
+        <v>158.09</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6149.66</v>
+      </c>
+      <c r="M17" t="n">
+        <v>23.05</v>
       </c>
     </row>
     <row r="18">
@@ -1122,13 +1279,22 @@
         <v>58.87</v>
       </c>
       <c r="H18" t="n">
-        <v>15.82</v>
+        <v>59.38</v>
       </c>
       <c r="I18" t="n">
+        <v>52.63</v>
+      </c>
+      <c r="J18" t="n">
+        <v>23.57</v>
+      </c>
+      <c r="K18" t="n">
         <v>168.41</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6673.87</v>
+      </c>
+      <c r="M18" t="n">
+        <v>18.8</v>
       </c>
     </row>
     <row r="19">
@@ -1148,25 +1314,34 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>11.73</v>
+        <v>11.71</v>
       </c>
       <c r="E19" t="n">
-        <v>30.6</v>
+        <v>30.57</v>
       </c>
       <c r="F19" t="n">
-        <v>18.87</v>
+        <v>18.86</v>
       </c>
       <c r="G19" t="n">
-        <v>74.06999999999999</v>
+        <v>73.14</v>
       </c>
       <c r="H19" t="n">
-        <v>20.55</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>168.89</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>8934.24</v>
+        <v>29.82</v>
+      </c>
+      <c r="K19" t="n">
+        <v>167.84</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8780.530000000001</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.89</v>
       </c>
     </row>
     <row r="20">
@@ -1198,14 +1373,21 @@
         <v>204.87</v>
       </c>
       <c r="H20" t="n">
-        <v>54.44</v>
+        <v>200.9</v>
       </c>
       <c r="I20" t="n">
+        <v>182.73</v>
+      </c>
+      <c r="J20" t="n">
+        <v>83.45999999999999</v>
+      </c>
+      <c r="K20" t="n">
         <v>128.2</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>19597.47</v>
       </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1227,22 +1409,31 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>30.93</v>
+        <v>31</v>
       </c>
       <c r="F21" t="n">
-        <v>20.93</v>
+        <v>21</v>
       </c>
       <c r="G21" t="n">
-        <v>193.7</v>
+        <v>192.79</v>
       </c>
       <c r="H21" t="n">
-        <v>48.64</v>
+        <v>192.09</v>
       </c>
       <c r="I21" t="n">
-        <v>116.55</v>
+        <v>168.64</v>
       </c>
       <c r="J21" t="n">
-        <v>17280.53</v>
+        <v>74.22</v>
+      </c>
+      <c r="K21" t="n">
+        <v>115.06</v>
+      </c>
+      <c r="L21" t="n">
+        <v>17002.57</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="22">
@@ -1262,25 +1453,34 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9.27</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>30.4</v>
+        <v>30.43</v>
       </c>
       <c r="F22" t="n">
-        <v>21.13</v>
+        <v>21.29</v>
       </c>
       <c r="G22" t="n">
-        <v>144.52</v>
+        <v>142.86</v>
       </c>
       <c r="H22" t="n">
-        <v>35.37</v>
+        <v>143.12</v>
       </c>
       <c r="I22" t="n">
-        <v>127.48</v>
+        <v>127.53</v>
       </c>
       <c r="J22" t="n">
-        <v>13220.12</v>
+        <v>53.86</v>
+      </c>
+      <c r="K22" t="n">
+        <v>132.13</v>
+      </c>
+      <c r="L22" t="n">
+        <v>13295.9</v>
+      </c>
+      <c r="M22" t="n">
+        <v>30.27</v>
       </c>
     </row>
     <row r="23">
@@ -1312,13 +1512,22 @@
         <v>196.6</v>
       </c>
       <c r="H23" t="n">
-        <v>50.59</v>
+        <v>193.99</v>
       </c>
       <c r="I23" t="n">
+        <v>168.86</v>
+      </c>
+      <c r="J23" t="n">
+        <v>77.66</v>
+      </c>
+      <c r="K23" t="n">
         <v>120.14</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>18497.02</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="24">
@@ -1350,13 +1559,22 @@
         <v>196.6</v>
       </c>
       <c r="H24" t="n">
-        <v>49.45</v>
+        <v>196.83</v>
       </c>
       <c r="I24" t="n">
+        <v>179.51</v>
+      </c>
+      <c r="J24" t="n">
+        <v>75.55</v>
+      </c>
+      <c r="K24" t="n">
         <v>131.59</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>17858.07</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="25">
@@ -1388,13 +1606,22 @@
         <v>188.93</v>
       </c>
       <c r="H25" t="n">
-        <v>49.57</v>
+        <v>185.85</v>
       </c>
       <c r="I25" t="n">
+        <v>174.81</v>
+      </c>
+      <c r="J25" t="n">
+        <v>76.03</v>
+      </c>
+      <c r="K25" t="n">
         <v>137.63</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>17744.45</v>
+      </c>
+      <c r="M25" t="n">
+        <v>7.78</v>
       </c>
     </row>
     <row r="26">
@@ -1417,22 +1644,31 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>31.64</v>
+        <v>30.91</v>
       </c>
       <c r="F26" t="n">
-        <v>21.64</v>
+        <v>20.91</v>
       </c>
       <c r="G26" t="n">
-        <v>181.53</v>
+        <v>180.45</v>
       </c>
       <c r="H26" t="n">
-        <v>45.7</v>
+        <v>180.82</v>
       </c>
       <c r="I26" t="n">
-        <v>111.03</v>
+        <v>164.63</v>
       </c>
       <c r="J26" t="n">
-        <v>15753.85</v>
+        <v>70.56999999999999</v>
+      </c>
+      <c r="K26" t="n">
+        <v>117.14</v>
+      </c>
+      <c r="L26" t="n">
+        <v>16269.75</v>
+      </c>
+      <c r="M26" t="n">
+        <v>11.92</v>
       </c>
     </row>
     <row r="27">
@@ -1455,22 +1691,31 @@
         <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>36.67</v>
+        <v>37.14</v>
       </c>
       <c r="F27" t="n">
-        <v>26.67</v>
+        <v>27.14</v>
       </c>
       <c r="G27" t="n">
-        <v>187.65</v>
+        <v>187.14</v>
       </c>
       <c r="H27" t="n">
-        <v>50.33</v>
+        <v>186.48</v>
       </c>
       <c r="I27" t="n">
-        <v>132.06</v>
+        <v>171.22</v>
       </c>
       <c r="J27" t="n">
-        <v>17953.97</v>
+        <v>76.31999999999999</v>
+      </c>
+      <c r="K27" t="n">
+        <v>127.54</v>
+      </c>
+      <c r="L27" t="n">
+        <v>17483.92</v>
+      </c>
+      <c r="M27" t="n">
+        <v>8.65</v>
       </c>
     </row>
     <row r="28">
@@ -1502,13 +1747,22 @@
         <v>176.53</v>
       </c>
       <c r="H28" t="n">
-        <v>44.33</v>
+        <v>176.73</v>
       </c>
       <c r="I28" t="n">
+        <v>159.81</v>
+      </c>
+      <c r="J28" t="n">
+        <v>68.13</v>
+      </c>
+      <c r="K28" t="n">
         <v>118.75</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>15946.82</v>
+      </c>
+      <c r="M28" t="n">
+        <v>13.83</v>
       </c>
     </row>
     <row r="29">
@@ -1540,13 +1794,22 @@
         <v>181.8</v>
       </c>
       <c r="H29" t="n">
-        <v>46.57</v>
+        <v>181</v>
       </c>
       <c r="I29" t="n">
+        <v>157.26</v>
+      </c>
+      <c r="J29" t="n">
+        <v>71.20999999999999</v>
+      </c>
+      <c r="K29" t="n">
         <v>118.43</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>16974.99</v>
+      </c>
+      <c r="M29" t="n">
+        <v>11.26</v>
       </c>
     </row>
     <row r="30">
@@ -1566,25 +1829,34 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10.27</v>
+        <v>10.29</v>
       </c>
       <c r="E30" t="n">
-        <v>29.73</v>
+        <v>29.71</v>
       </c>
       <c r="F30" t="n">
-        <v>19.47</v>
+        <v>19.43</v>
       </c>
       <c r="G30" t="n">
-        <v>174.47</v>
+        <v>171.86</v>
       </c>
       <c r="H30" t="n">
-        <v>42.88</v>
+        <v>172.16</v>
       </c>
       <c r="I30" t="n">
-        <v>108.12</v>
+        <v>148.83</v>
       </c>
       <c r="J30" t="n">
-        <v>15276.73</v>
+        <v>65.47</v>
+      </c>
+      <c r="K30" t="n">
+        <v>110.95</v>
+      </c>
+      <c r="L30" t="n">
+        <v>15278.49</v>
+      </c>
+      <c r="M30" t="n">
+        <v>16.11</v>
       </c>
     </row>
     <row r="31">
@@ -1616,13 +1888,22 @@
         <v>178.33</v>
       </c>
       <c r="H31" t="n">
-        <v>44.86</v>
+        <v>178.61</v>
       </c>
       <c r="I31" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="J31" t="n">
+        <v>68.83</v>
+      </c>
+      <c r="K31" t="n">
         <v>122.04</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>16129.3</v>
+      </c>
+      <c r="M31" t="n">
+        <v>12.95</v>
       </c>
     </row>
     <row r="32">
@@ -1642,25 +1923,34 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10.27</v>
+        <v>10.29</v>
       </c>
       <c r="E32" t="n">
-        <v>30.3</v>
+        <v>30.29</v>
       </c>
       <c r="F32" t="n">
-        <v>20.03</v>
+        <v>20</v>
       </c>
       <c r="G32" t="n">
-        <v>179.32</v>
+        <v>177.57</v>
       </c>
       <c r="H32" t="n">
-        <v>45.85</v>
+        <v>177.6</v>
       </c>
       <c r="I32" t="n">
-        <v>126.03</v>
+        <v>152.88</v>
       </c>
       <c r="J32" t="n">
-        <v>17006.82</v>
+        <v>70.03</v>
+      </c>
+      <c r="K32" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>17161.37</v>
+      </c>
+      <c r="M32" t="n">
+        <v>13.32</v>
       </c>
     </row>
     <row r="33">
@@ -1692,13 +1982,22 @@
         <v>185.93</v>
       </c>
       <c r="H33" t="n">
-        <v>47.72</v>
+        <v>182.59</v>
       </c>
       <c r="I33" t="n">
+        <v>158.6</v>
+      </c>
+      <c r="J33" t="n">
+        <v>73.29000000000001</v>
+      </c>
+      <c r="K33" t="n">
         <v>127.19</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>17200.31</v>
+      </c>
+      <c r="M33" t="n">
+        <v>9.24</v>
       </c>
     </row>
     <row r="34">
@@ -1718,25 +2017,34 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10.17</v>
+        <v>10.14</v>
       </c>
       <c r="E34" t="n">
-        <v>30.6</v>
+        <v>30.57</v>
       </c>
       <c r="F34" t="n">
         <v>20.43</v>
       </c>
       <c r="G34" t="n">
-        <v>182.42</v>
+        <v>184.93</v>
       </c>
       <c r="H34" t="n">
-        <v>46.06</v>
+        <v>185.26</v>
       </c>
       <c r="I34" t="n">
-        <v>117.51</v>
+        <v>157.28</v>
       </c>
       <c r="J34" t="n">
-        <v>16759.01</v>
+        <v>71.31</v>
+      </c>
+      <c r="K34" t="n">
+        <v>116.47</v>
+      </c>
+      <c r="L34" t="n">
+        <v>16910</v>
+      </c>
+      <c r="M34" t="n">
+        <v>9.73</v>
       </c>
     </row>
     <row r="35">
@@ -1768,13 +2076,22 @@
         <v>177.2</v>
       </c>
       <c r="H35" t="n">
-        <v>45.6</v>
+        <v>177.16</v>
       </c>
       <c r="I35" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="J35" t="n">
+        <v>69.86</v>
+      </c>
+      <c r="K35" t="n">
         <v>122.94</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>16552.33</v>
+      </c>
+      <c r="M35" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="36">
@@ -1797,22 +2114,31 @@
         <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>29.2</v>
+        <v>29.14</v>
       </c>
       <c r="F36" t="n">
-        <v>19.2</v>
+        <v>19.14</v>
       </c>
       <c r="G36" t="n">
-        <v>179.83</v>
+        <v>177.57</v>
       </c>
       <c r="H36" t="n">
-        <v>45.67</v>
+        <v>178</v>
       </c>
       <c r="I36" t="n">
-        <v>125.76</v>
+        <v>151.51</v>
       </c>
       <c r="J36" t="n">
-        <v>16994.3</v>
+        <v>69.44</v>
+      </c>
+      <c r="K36" t="n">
+        <v>130.11</v>
+      </c>
+      <c r="L36" t="n">
+        <v>17124.84</v>
+      </c>
+      <c r="M36" t="n">
+        <v>13.32</v>
       </c>
     </row>
     <row r="37">
@@ -1832,25 +2158,34 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>10.17</v>
+        <v>10.14</v>
       </c>
       <c r="E37" t="n">
-        <v>31.93</v>
+        <v>32</v>
       </c>
       <c r="F37" t="n">
-        <v>21.77</v>
+        <v>21.86</v>
       </c>
       <c r="G37" t="n">
-        <v>181.03</v>
+        <v>184.57</v>
       </c>
       <c r="H37" t="n">
-        <v>45.96</v>
+        <v>184.02</v>
       </c>
       <c r="I37" t="n">
-        <v>115.26</v>
+        <v>157.76</v>
       </c>
       <c r="J37" t="n">
-        <v>16438.19</v>
+        <v>71.81999999999999</v>
+      </c>
+      <c r="K37" t="n">
+        <v>114.66</v>
+      </c>
+      <c r="L37" t="n">
+        <v>16759.24</v>
+      </c>
+      <c r="M37" t="n">
+        <v>9.91</v>
       </c>
     </row>
     <row r="38">
@@ -1870,26 +2205,33 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10.67</v>
+        <v>10.71</v>
       </c>
       <c r="E38" t="n">
-        <v>29.2</v>
+        <v>29.29</v>
       </c>
       <c r="F38" t="n">
-        <v>18.53</v>
+        <v>18.57</v>
       </c>
       <c r="G38" t="n">
-        <v>133.83</v>
+        <v>131.71</v>
       </c>
       <c r="H38" t="n">
-        <v>29.52</v>
+        <v>132.18</v>
       </c>
       <c r="I38" t="n">
-        <v>89.67</v>
+        <v>119.31</v>
       </c>
       <c r="J38" t="n">
-        <v>9452.889999999999</v>
-      </c>
+        <v>45.44</v>
+      </c>
+      <c r="K38" t="n">
+        <v>92.98</v>
+      </c>
+      <c r="L38" t="n">
+        <v>9512.190000000001</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1920,13 +2262,22 @@
         <v>133.27</v>
       </c>
       <c r="H39" t="n">
-        <v>31.91</v>
+        <v>133.52</v>
       </c>
       <c r="I39" t="n">
+        <v>123.3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>48.91</v>
+      </c>
+      <c r="K39" t="n">
         <v>97.73</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>11604.5</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-1.18</v>
       </c>
     </row>
     <row r="40">
@@ -1946,25 +2297,34 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>7.7</v>
+        <v>7.54</v>
       </c>
       <c r="E40" t="n">
-        <v>29.97</v>
+        <v>30</v>
       </c>
       <c r="F40" t="n">
-        <v>22.27</v>
+        <v>22.46</v>
       </c>
       <c r="G40" t="n">
-        <v>91.28</v>
+        <v>89.84999999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>20.57</v>
+        <v>89.95</v>
       </c>
       <c r="I40" t="n">
-        <v>111.01</v>
+        <v>80.36</v>
       </c>
       <c r="J40" t="n">
-        <v>7456.48</v>
+        <v>31.03</v>
+      </c>
+      <c r="K40" t="n">
+        <v>111.95</v>
+      </c>
+      <c r="L40" t="n">
+        <v>7374.15</v>
+      </c>
+      <c r="M40" t="n">
+        <v>31.79</v>
       </c>
     </row>
     <row r="41">
@@ -1984,25 +2344,34 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>10.27</v>
+        <v>10.29</v>
       </c>
       <c r="E41" t="n">
-        <v>28</v>
+        <v>27.86</v>
       </c>
       <c r="F41" t="n">
-        <v>17.73</v>
+        <v>17.57</v>
       </c>
       <c r="G41" t="n">
-        <v>135.57</v>
+        <v>136.07</v>
       </c>
       <c r="H41" t="n">
-        <v>30.9</v>
+        <v>136.2</v>
       </c>
       <c r="I41" t="n">
-        <v>96.59999999999999</v>
+        <v>121.85</v>
       </c>
       <c r="J41" t="n">
-        <v>10473.38</v>
+        <v>47.42</v>
+      </c>
+      <c r="K41" t="n">
+        <v>95.55</v>
+      </c>
+      <c r="L41" t="n">
+        <v>10450.18</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-3.31</v>
       </c>
     </row>
     <row r="42">
@@ -2034,13 +2403,22 @@
         <v>135.93</v>
       </c>
       <c r="H42" t="n">
-        <v>30.3</v>
+        <v>136.22</v>
       </c>
       <c r="I42" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>46.81</v>
+      </c>
+      <c r="K42" t="n">
         <v>84.15000000000001</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>9948.34</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-3.2</v>
       </c>
     </row>
     <row r="43">
@@ -2063,22 +2441,31 @@
         <v>10.43</v>
       </c>
       <c r="E43" t="n">
-        <v>27</v>
+        <v>27.29</v>
       </c>
       <c r="F43" t="n">
-        <v>16.57</v>
+        <v>16.86</v>
       </c>
       <c r="G43" t="n">
-        <v>116.1</v>
+        <v>117.43</v>
       </c>
       <c r="H43" t="n">
-        <v>25.43</v>
+        <v>117.61</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81</v>
+        <v>107.67</v>
       </c>
       <c r="J43" t="n">
-        <v>8403.08</v>
+        <v>39.74</v>
+      </c>
+      <c r="K43" t="n">
+        <v>93.81999999999999</v>
+      </c>
+      <c r="L43" t="n">
+        <v>8458.34</v>
+      </c>
+      <c r="M43" t="n">
+        <v>10.85</v>
       </c>
     </row>
     <row r="44">
@@ -2098,25 +2485,34 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>10.63</v>
+        <v>10.57</v>
       </c>
       <c r="E44" t="n">
-        <v>30.03</v>
+        <v>29.57</v>
       </c>
       <c r="F44" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="G44" t="n">
-        <v>116.48</v>
+        <v>118.14</v>
       </c>
       <c r="H44" t="n">
-        <v>25.8</v>
+        <v>118.07</v>
       </c>
       <c r="I44" t="n">
-        <v>104.04</v>
+        <v>106.36</v>
       </c>
       <c r="J44" t="n">
-        <v>8549.559999999999</v>
+        <v>39.87</v>
+      </c>
+      <c r="K44" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="L44" t="n">
+        <v>8544.219999999999</v>
+      </c>
+      <c r="M44" t="n">
+        <v>10.3</v>
       </c>
     </row>
     <row r="45">
@@ -2136,25 +2532,34 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10.17</v>
+        <v>10.14</v>
       </c>
       <c r="E45" t="n">
-        <v>28.7</v>
+        <v>28.71</v>
       </c>
       <c r="F45" t="n">
-        <v>18.53</v>
+        <v>18.57</v>
       </c>
       <c r="G45" t="n">
-        <v>127.03</v>
+        <v>129.29</v>
       </c>
       <c r="H45" t="n">
-        <v>28.42</v>
+        <v>129.52</v>
       </c>
       <c r="I45" t="n">
-        <v>99.64</v>
+        <v>117.9</v>
       </c>
       <c r="J45" t="n">
-        <v>9692.559999999999</v>
+        <v>44.34</v>
+      </c>
+      <c r="K45" t="n">
+        <v>96.38</v>
+      </c>
+      <c r="L45" t="n">
+        <v>9728.969999999999</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="46">
@@ -2186,13 +2591,22 @@
         <v>115.6</v>
       </c>
       <c r="H46" t="n">
-        <v>26.14</v>
+        <v>115.74</v>
       </c>
       <c r="I46" t="n">
+        <v>104.94</v>
+      </c>
+      <c r="J46" t="n">
+        <v>40.12</v>
+      </c>
+      <c r="K46" t="n">
         <v>110.01</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>9018.780000000001</v>
+      </c>
+      <c r="M46" t="n">
+        <v>12.23</v>
       </c>
     </row>
     <row r="47">
@@ -2224,13 +2638,22 @@
         <v>126.93</v>
       </c>
       <c r="H47" t="n">
-        <v>28.3</v>
+        <v>127.15</v>
       </c>
       <c r="I47" t="n">
+        <v>117.2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>43.54</v>
+      </c>
+      <c r="K47" t="n">
         <v>90.55</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>9912.73</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3.63</v>
       </c>
     </row>
     <row r="48">
@@ -2262,13 +2685,22 @@
         <v>114.47</v>
       </c>
       <c r="H48" t="n">
-        <v>26.22</v>
+        <v>114.67</v>
       </c>
       <c r="I48" t="n">
+        <v>105.75</v>
+      </c>
+      <c r="J48" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="K48" t="n">
         <v>109.91</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>9389.879999999999</v>
+      </c>
+      <c r="M48" t="n">
+        <v>13.09</v>
       </c>
     </row>
     <row r="49">
@@ -2300,13 +2732,22 @@
         <v>120.4</v>
       </c>
       <c r="H49" t="n">
-        <v>25.96</v>
+        <v>120.84</v>
       </c>
       <c r="I49" t="n">
+        <v>108.9</v>
+      </c>
+      <c r="J49" t="n">
+        <v>40.22</v>
+      </c>
+      <c r="K49" t="n">
         <v>85.37</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>8267.1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>8.59</v>
       </c>
     </row>
     <row r="50">
@@ -2326,25 +2767,34 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>10.67</v>
+        <v>10.71</v>
       </c>
       <c r="E50" t="n">
-        <v>30.9</v>
+        <v>30.57</v>
       </c>
       <c r="F50" t="n">
-        <v>20.23</v>
+        <v>19.86</v>
       </c>
       <c r="G50" t="n">
-        <v>115.4</v>
+        <v>115.21</v>
       </c>
       <c r="H50" t="n">
-        <v>26</v>
+        <v>115.36</v>
       </c>
       <c r="I50" t="n">
-        <v>89.2</v>
+        <v>108.49</v>
       </c>
       <c r="J50" t="n">
-        <v>8512.860000000001</v>
+        <v>39.68</v>
+      </c>
+      <c r="K50" t="n">
+        <v>88.22</v>
+      </c>
+      <c r="L50" t="n">
+        <v>8415.02</v>
+      </c>
+      <c r="M50" t="n">
+        <v>12.53</v>
       </c>
     </row>
     <row r="51">
@@ -2364,25 +2814,34 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>11.27</v>
+        <v>11.29</v>
       </c>
       <c r="E51" t="n">
-        <v>29.9</v>
+        <v>29.86</v>
       </c>
       <c r="F51" t="n">
-        <v>18.63</v>
+        <v>18.57</v>
       </c>
       <c r="G51" t="n">
-        <v>118.98</v>
+        <v>116</v>
       </c>
       <c r="H51" t="n">
-        <v>26.9</v>
+        <v>115.98</v>
       </c>
       <c r="I51" t="n">
-        <v>94.81999999999999</v>
+        <v>106.16</v>
       </c>
       <c r="J51" t="n">
-        <v>9005.83</v>
+        <v>40.79</v>
+      </c>
+      <c r="K51" t="n">
+        <v>98.27</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8985.73</v>
+      </c>
+      <c r="M51" t="n">
+        <v>11.93</v>
       </c>
     </row>
     <row r="52">
@@ -2402,25 +2861,34 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>10.83</v>
+        <v>10.86</v>
       </c>
       <c r="E52" t="n">
-        <v>26.8</v>
+        <v>26.71</v>
       </c>
       <c r="F52" t="n">
-        <v>15.97</v>
+        <v>15.86</v>
       </c>
       <c r="G52" t="n">
-        <v>102.33</v>
+        <v>102.86</v>
       </c>
       <c r="H52" t="n">
-        <v>24.03</v>
+        <v>103.12</v>
       </c>
       <c r="I52" t="n">
-        <v>106.86</v>
+        <v>94.55</v>
       </c>
       <c r="J52" t="n">
-        <v>9085</v>
+        <v>36.56</v>
+      </c>
+      <c r="K52" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="L52" t="n">
+        <v>9070.780000000001</v>
+      </c>
+      <c r="M52" t="n">
+        <v>21.91</v>
       </c>
     </row>
     <row r="53">
@@ -2440,25 +2908,34 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>11.3</v>
+        <v>11.29</v>
       </c>
       <c r="E53" t="n">
-        <v>30.57</v>
+        <v>30.71</v>
       </c>
       <c r="F53" t="n">
-        <v>19.27</v>
+        <v>19.43</v>
       </c>
       <c r="G53" t="n">
-        <v>119.1</v>
+        <v>121.5</v>
       </c>
       <c r="H53" t="n">
-        <v>27.22</v>
+        <v>120.8</v>
       </c>
       <c r="I53" t="n">
-        <v>96.81999999999999</v>
+        <v>114.07</v>
       </c>
       <c r="J53" t="n">
-        <v>9166.530000000001</v>
+        <v>42.49</v>
+      </c>
+      <c r="K53" t="n">
+        <v>94.70999999999999</v>
+      </c>
+      <c r="L53" t="n">
+        <v>9248.959999999999</v>
+      </c>
+      <c r="M53" t="n">
+        <v>7.75</v>
       </c>
     </row>
     <row r="54">
@@ -2478,25 +2955,34 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>10.93</v>
+        <v>11</v>
       </c>
       <c r="E54" t="n">
-        <v>27.7</v>
+        <v>27.86</v>
       </c>
       <c r="F54" t="n">
-        <v>16.77</v>
+        <v>16.86</v>
       </c>
       <c r="G54" t="n">
-        <v>125.7</v>
+        <v>122.29</v>
       </c>
       <c r="H54" t="n">
-        <v>28.27</v>
+        <v>122.62</v>
       </c>
       <c r="I54" t="n">
-        <v>93.79000000000001</v>
+        <v>114.41</v>
       </c>
       <c r="J54" t="n">
-        <v>9930.99</v>
+        <v>42.57</v>
+      </c>
+      <c r="K54" t="n">
+        <v>96.31999999999999</v>
+      </c>
+      <c r="L54" t="n">
+        <v>9786.6</v>
+      </c>
+      <c r="M54" t="n">
+        <v>7.16</v>
       </c>
     </row>
     <row r="55">
@@ -2519,22 +3005,31 @@
         <v>10.57</v>
       </c>
       <c r="E55" t="n">
-        <v>28.57</v>
+        <v>28.43</v>
       </c>
       <c r="F55" t="n">
-        <v>18</v>
+        <v>17.86</v>
       </c>
       <c r="G55" t="n">
-        <v>118.28</v>
+        <v>119.43</v>
       </c>
       <c r="H55" t="n">
-        <v>24.28</v>
+        <v>119.77</v>
       </c>
       <c r="I55" t="n">
-        <v>80.86</v>
+        <v>109.47</v>
       </c>
       <c r="J55" t="n">
-        <v>7220.78</v>
+        <v>37.83</v>
+      </c>
+      <c r="K55" t="n">
+        <v>79.62</v>
+      </c>
+      <c r="L55" t="n">
+        <v>7208.94</v>
+      </c>
+      <c r="M55" t="n">
+        <v>9.33</v>
       </c>
     </row>
     <row r="56">
@@ -2566,14 +3061,21 @@
         <v>120.07</v>
       </c>
       <c r="H56" t="n">
-        <v>33.45</v>
+        <v>119.77</v>
       </c>
       <c r="I56" t="n">
+        <v>109.15</v>
+      </c>
+      <c r="J56" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="K56" t="n">
         <v>144.59</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>12911.34</v>
       </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2604,13 +3106,22 @@
         <v>115.6</v>
       </c>
       <c r="H57" t="n">
-        <v>31.02</v>
+        <v>115.03</v>
       </c>
       <c r="I57" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="J57" t="n">
+        <v>47.08</v>
+      </c>
+      <c r="K57" t="n">
         <v>144.23</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>11923.71</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3.72</v>
       </c>
     </row>
     <row r="58">
@@ -2630,25 +3141,34 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>8.9</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>29.13</v>
+        <v>29.29</v>
       </c>
       <c r="F58" t="n">
-        <v>20.23</v>
+        <v>20.57</v>
       </c>
       <c r="G58" t="n">
-        <v>75.22</v>
+        <v>76.64</v>
       </c>
       <c r="H58" t="n">
-        <v>18.71</v>
+        <v>76.53</v>
       </c>
       <c r="I58" t="n">
-        <v>139.89</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="J58" t="n">
-        <v>7333.63</v>
+        <v>28.95</v>
+      </c>
+      <c r="K58" t="n">
+        <v>139.32</v>
+      </c>
+      <c r="L58" t="n">
+        <v>7474.54</v>
+      </c>
+      <c r="M58" t="n">
+        <v>36.17</v>
       </c>
     </row>
     <row r="59">
@@ -2668,25 +3188,34 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>10.33</v>
+        <v>10.29</v>
       </c>
       <c r="E59" t="n">
-        <v>29.07</v>
+        <v>29</v>
       </c>
       <c r="F59" t="n">
-        <v>18.73</v>
+        <v>18.71</v>
       </c>
       <c r="G59" t="n">
-        <v>110.68</v>
+        <v>113.29</v>
       </c>
       <c r="H59" t="n">
-        <v>29.5</v>
+        <v>113.61</v>
       </c>
       <c r="I59" t="n">
-        <v>137.85</v>
+        <v>100.22</v>
       </c>
       <c r="J59" t="n">
-        <v>11430.44</v>
+        <v>46.15</v>
+      </c>
+      <c r="K59" t="n">
+        <v>136.67</v>
+      </c>
+      <c r="L59" t="n">
+        <v>11734.74</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5.65</v>
       </c>
     </row>
     <row r="60">
@@ -2706,25 +3235,34 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>10.67</v>
+        <v>10.57</v>
       </c>
       <c r="E60" t="n">
-        <v>31.33</v>
+        <v>31.43</v>
       </c>
       <c r="F60" t="n">
-        <v>20.67</v>
+        <v>20.86</v>
       </c>
       <c r="G60" t="n">
-        <v>112.1</v>
+        <v>114.57</v>
       </c>
       <c r="H60" t="n">
-        <v>30</v>
+        <v>114.57</v>
       </c>
       <c r="I60" t="n">
-        <v>136.8</v>
+        <v>105.04</v>
       </c>
       <c r="J60" t="n">
-        <v>11464.2</v>
+        <v>46.83</v>
+      </c>
+      <c r="K60" t="n">
+        <v>136.63</v>
+      </c>
+      <c r="L60" t="n">
+        <v>11765.8</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4.58</v>
       </c>
     </row>
     <row r="61">
@@ -2756,13 +3294,22 @@
         <v>107.93</v>
       </c>
       <c r="H61" t="n">
-        <v>28.81</v>
+        <v>107.29</v>
       </c>
       <c r="I61" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="J61" t="n">
+        <v>43.86</v>
+      </c>
+      <c r="K61" t="n">
         <v>139.25</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>10999.2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>10.11</v>
       </c>
     </row>
     <row r="62">
@@ -2794,13 +3341,22 @@
         <v>118.47</v>
       </c>
       <c r="H62" t="n">
-        <v>32.2</v>
+        <v>116.97</v>
       </c>
       <c r="I62" t="n">
+        <v>107.16</v>
+      </c>
+      <c r="J62" t="n">
+        <v>48.76</v>
+      </c>
+      <c r="K62" t="n">
         <v>152.44</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>12565.13</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="63">
@@ -2832,13 +3388,22 @@
         <v>110.8</v>
       </c>
       <c r="H63" t="n">
-        <v>28.61</v>
+        <v>111.11</v>
       </c>
       <c r="I63" t="n">
+        <v>104.01</v>
+      </c>
+      <c r="J63" t="n">
+        <v>43.54</v>
+      </c>
+      <c r="K63" t="n">
         <v>133.62</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>10952.81</v>
+      </c>
+      <c r="M63" t="n">
+        <v>7.72</v>
       </c>
     </row>
     <row r="64">
@@ -2861,22 +3426,31 @@
         <v>10.43</v>
       </c>
       <c r="E64" t="n">
-        <v>30.17</v>
+        <v>30.14</v>
       </c>
       <c r="F64" t="n">
-        <v>19.73</v>
+        <v>19.71</v>
       </c>
       <c r="G64" t="n">
-        <v>102.75</v>
+        <v>102.07</v>
       </c>
       <c r="H64" t="n">
-        <v>26.63</v>
+        <v>102.36</v>
       </c>
       <c r="I64" t="n">
-        <v>135.46</v>
+        <v>94.12</v>
       </c>
       <c r="J64" t="n">
-        <v>10274.72</v>
+        <v>40.01</v>
+      </c>
+      <c r="K64" t="n">
+        <v>134.35</v>
+      </c>
+      <c r="L64" t="n">
+        <v>10042.09</v>
+      </c>
+      <c r="M64" t="n">
+        <v>14.99</v>
       </c>
     </row>
     <row r="65">
@@ -2896,25 +3470,34 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>10.33</v>
+        <v>10.29</v>
       </c>
       <c r="E65" t="n">
-        <v>30.13</v>
+        <v>30.14</v>
       </c>
       <c r="F65" t="n">
-        <v>19.8</v>
+        <v>19.86</v>
       </c>
       <c r="G65" t="n">
-        <v>96.43000000000001</v>
+        <v>95.20999999999999</v>
       </c>
       <c r="H65" t="n">
-        <v>24.96</v>
+        <v>95.55</v>
       </c>
       <c r="I65" t="n">
-        <v>137.14</v>
+        <v>84.25</v>
       </c>
       <c r="J65" t="n">
-        <v>9735.51</v>
+        <v>37.6</v>
+      </c>
+      <c r="K65" t="n">
+        <v>138.85</v>
+      </c>
+      <c r="L65" t="n">
+        <v>9747.620000000001</v>
+      </c>
+      <c r="M65" t="n">
+        <v>20.7</v>
       </c>
     </row>
     <row r="66">
@@ -2946,13 +3529,22 @@
         <v>101.67</v>
       </c>
       <c r="H66" t="n">
-        <v>25.86</v>
+        <v>101.95</v>
       </c>
       <c r="I66" t="n">
+        <v>91.91</v>
+      </c>
+      <c r="J66" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="K66" t="n">
         <v>129.5</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>9781.77</v>
+      </c>
+      <c r="M66" t="n">
+        <v>15.32</v>
       </c>
     </row>
     <row r="67">
@@ -2984,13 +3576,22 @@
         <v>103.2</v>
       </c>
       <c r="H67" t="n">
-        <v>26.9</v>
+        <v>103.42</v>
       </c>
       <c r="I67" t="n">
+        <v>94.19</v>
+      </c>
+      <c r="J67" t="n">
+        <v>40.99</v>
+      </c>
+      <c r="K67" t="n">
         <v>139.23</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>10378.06</v>
+      </c>
+      <c r="M67" t="n">
+        <v>14.05</v>
       </c>
     </row>
     <row r="68">
@@ -3022,13 +3623,22 @@
         <v>102.73</v>
       </c>
       <c r="H68" t="n">
-        <v>27</v>
+        <v>102.51</v>
       </c>
       <c r="I68" t="n">
+        <v>94.68000000000001</v>
+      </c>
+      <c r="J68" t="n">
+        <v>41.11</v>
+      </c>
+      <c r="K68" t="n">
         <v>139.4</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>10359.22</v>
+      </c>
+      <c r="M68" t="n">
+        <v>14.44</v>
       </c>
     </row>
     <row r="69">
@@ -3060,13 +3670,22 @@
         <v>101.87</v>
       </c>
       <c r="H69" t="n">
-        <v>26.44</v>
+        <v>102.06</v>
       </c>
       <c r="I69" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="J69" t="n">
+        <v>40.28</v>
+      </c>
+      <c r="K69" t="n">
         <v>132.78</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>10221.67</v>
+      </c>
+      <c r="M69" t="n">
+        <v>15.16</v>
       </c>
     </row>
     <row r="70">
@@ -3098,13 +3717,22 @@
         <v>106.33</v>
       </c>
       <c r="H70" t="n">
-        <v>28</v>
+        <v>103.6</v>
       </c>
       <c r="I70" t="n">
+        <v>97.56999999999999</v>
+      </c>
+      <c r="J70" t="n">
+        <v>42.55</v>
+      </c>
+      <c r="K70" t="n">
         <v>140.07</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>10795.07</v>
+      </c>
+      <c r="M70" t="n">
+        <v>11.44</v>
       </c>
     </row>
     <row r="71">
@@ -3124,25 +3752,34 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>10.4</v>
+        <v>10.46</v>
       </c>
       <c r="E71" t="n">
-        <v>31.73</v>
+        <v>32</v>
       </c>
       <c r="F71" t="n">
-        <v>21.33</v>
+        <v>21.54</v>
       </c>
       <c r="G71" t="n">
-        <v>99.89</v>
+        <v>98.54000000000001</v>
       </c>
       <c r="H71" t="n">
-        <v>26.21</v>
+        <v>98.7</v>
       </c>
       <c r="I71" t="n">
-        <v>132.66</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="J71" t="n">
-        <v>9982.84</v>
+        <v>39.81</v>
+      </c>
+      <c r="K71" t="n">
+        <v>135.45</v>
+      </c>
+      <c r="L71" t="n">
+        <v>10116.12</v>
+      </c>
+      <c r="M71" t="n">
+        <v>17.93</v>
       </c>
     </row>
     <row r="72">
@@ -3162,25 +3799,34 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>10.63</v>
+        <v>10.62</v>
       </c>
       <c r="E72" t="n">
         <v>30</v>
       </c>
       <c r="F72" t="n">
-        <v>19.37</v>
+        <v>19.38</v>
       </c>
       <c r="G72" t="n">
-        <v>111.27</v>
+        <v>112.85</v>
       </c>
       <c r="H72" t="n">
-        <v>29.01</v>
+        <v>113.17</v>
       </c>
       <c r="I72" t="n">
-        <v>137.46</v>
+        <v>102.93</v>
       </c>
       <c r="J72" t="n">
-        <v>11194.06</v>
+        <v>44.88</v>
+      </c>
+      <c r="K72" t="n">
+        <v>136.57</v>
+      </c>
+      <c r="L72" t="n">
+        <v>11433.97</v>
+      </c>
+      <c r="M72" t="n">
+        <v>6.01</v>
       </c>
     </row>
     <row r="73">
@@ -3200,25 +3846,34 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>10.67</v>
+        <v>10.62</v>
       </c>
       <c r="E73" t="n">
         <v>30</v>
       </c>
       <c r="F73" t="n">
-        <v>19.33</v>
+        <v>19.38</v>
       </c>
       <c r="G73" t="n">
-        <v>103.97</v>
+        <v>105.38</v>
       </c>
       <c r="H73" t="n">
-        <v>27.32</v>
+        <v>105.53</v>
       </c>
       <c r="I73" t="n">
-        <v>140.68</v>
+        <v>97.33</v>
       </c>
       <c r="J73" t="n">
-        <v>10623.79</v>
+        <v>42.34</v>
+      </c>
+      <c r="K73" t="n">
+        <v>141.02</v>
+      </c>
+      <c r="L73" t="n">
+        <v>10932.63</v>
+      </c>
+      <c r="M73" t="n">
+        <v>12.23</v>
       </c>
     </row>
     <row r="74">
@@ -3250,14 +3905,21 @@
         <v>100.67</v>
       </c>
       <c r="H74" t="n">
-        <v>28.35</v>
+        <v>101.05</v>
       </c>
       <c r="I74" t="n">
+        <v>90.61</v>
+      </c>
+      <c r="J74" t="n">
+        <v>42.28</v>
+      </c>
+      <c r="K74" t="n">
         <v>158.6</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>12035</v>
       </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3288,13 +3950,22 @@
         <v>100.27</v>
       </c>
       <c r="H75" t="n">
-        <v>27.08</v>
+        <v>100.54</v>
       </c>
       <c r="I75" t="n">
+        <v>89.63</v>
+      </c>
+      <c r="J75" t="n">
+        <v>40.79</v>
+      </c>
+      <c r="K75" t="n">
         <v>141.22</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>10966.64</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="76">
@@ -3326,13 +3997,22 @@
         <v>71.2</v>
       </c>
       <c r="H76" t="n">
-        <v>19.43</v>
+        <v>71.36</v>
       </c>
       <c r="I76" t="n">
+        <v>62.51</v>
+      </c>
+      <c r="J76" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="K76" t="n">
         <v>164.22</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>8201.620000000001</v>
+      </c>
+      <c r="M76" t="n">
+        <v>29.27</v>
       </c>
     </row>
     <row r="77">
@@ -3364,13 +4044,22 @@
         <v>116.6</v>
       </c>
       <c r="H77" t="n">
-        <v>32.89</v>
+        <v>116.93</v>
       </c>
       <c r="I77" t="n">
+        <v>103.31</v>
+      </c>
+      <c r="J77" t="n">
+        <v>49.07</v>
+      </c>
+      <c r="K77" t="n">
         <v>156.83</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>13783.62</v>
+      </c>
+      <c r="M77" t="n">
+        <v>-15.83</v>
       </c>
     </row>
     <row r="78">
@@ -3402,13 +4091,22 @@
         <v>82.8</v>
       </c>
       <c r="H78" t="n">
-        <v>22.81</v>
+        <v>83.17</v>
       </c>
       <c r="I78" t="n">
+        <v>73.87</v>
+      </c>
+      <c r="J78" t="n">
+        <v>33.92</v>
+      </c>
+      <c r="K78" t="n">
         <v>162.96</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>9685.139999999999</v>
+      </c>
+      <c r="M78" t="n">
+        <v>17.75</v>
       </c>
     </row>
     <row r="79">
@@ -3428,25 +4126,34 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>10.13</v>
+        <v>10.14</v>
       </c>
       <c r="E79" t="n">
-        <v>30.3</v>
+        <v>30.29</v>
       </c>
       <c r="F79" t="n">
-        <v>20.17</v>
+        <v>20.14</v>
       </c>
       <c r="G79" t="n">
-        <v>102.75</v>
+        <v>102.29</v>
       </c>
       <c r="H79" t="n">
-        <v>29.16</v>
+        <v>102.66</v>
       </c>
       <c r="I79" t="n">
-        <v>162.61</v>
+        <v>96.03</v>
       </c>
       <c r="J79" t="n">
-        <v>12258.31</v>
+        <v>43.44</v>
+      </c>
+      <c r="K79" t="n">
+        <v>163.82</v>
+      </c>
+      <c r="L79" t="n">
+        <v>12286.85</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-1.61</v>
       </c>
     </row>
     <row r="80">
@@ -3466,25 +4173,34 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>9.800000000000001</v>
+        <v>9.85</v>
       </c>
       <c r="E80" t="n">
-        <v>30.03</v>
+        <v>30</v>
       </c>
       <c r="F80" t="n">
-        <v>20.23</v>
+        <v>20.15</v>
       </c>
       <c r="G80" t="n">
-        <v>100.35</v>
+        <v>100.69</v>
       </c>
       <c r="H80" t="n">
-        <v>28.69</v>
+        <v>101.05</v>
       </c>
       <c r="I80" t="n">
-        <v>168.07</v>
+        <v>88.43000000000001</v>
       </c>
       <c r="J80" t="n">
-        <v>12317.12</v>
+        <v>42.73</v>
+      </c>
+      <c r="K80" t="n">
+        <v>166.14</v>
+      </c>
+      <c r="L80" t="n">
+        <v>12298.9</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="81">
@@ -3516,13 +4232,22 @@
         <v>104.6</v>
       </c>
       <c r="H81" t="n">
-        <v>30.57</v>
+        <v>103.89</v>
       </c>
       <c r="I81" t="n">
+        <v>92.51000000000001</v>
+      </c>
+      <c r="J81" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="K81" t="n">
         <v>167.89</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>12932.41</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-3.91</v>
       </c>
     </row>
     <row r="82">
@@ -3542,25 +4267,34 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>10.3</v>
+        <v>10.29</v>
       </c>
       <c r="E82" t="n">
-        <v>30.7</v>
+        <v>30.71</v>
       </c>
       <c r="F82" t="n">
-        <v>20.4</v>
+        <v>20.43</v>
       </c>
       <c r="G82" t="n">
-        <v>94.93000000000001</v>
+        <v>93.86</v>
       </c>
       <c r="H82" t="n">
-        <v>25.79</v>
+        <v>94.06</v>
       </c>
       <c r="I82" t="n">
-        <v>155.18</v>
+        <v>85.28</v>
       </c>
       <c r="J82" t="n">
-        <v>10746.83</v>
+        <v>38.11</v>
+      </c>
+      <c r="K82" t="n">
+        <v>154.34</v>
+      </c>
+      <c r="L82" t="n">
+        <v>10579.5</v>
+      </c>
+      <c r="M82" t="n">
+        <v>6.76</v>
       </c>
     </row>
     <row r="83">
@@ -3580,25 +4314,34 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>10.91</v>
+        <v>10.83</v>
       </c>
       <c r="E83" t="n">
-        <v>30.47</v>
+        <v>30.5</v>
       </c>
       <c r="F83" t="n">
-        <v>19.56</v>
+        <v>19.67</v>
       </c>
       <c r="G83" t="n">
-        <v>89.92</v>
+        <v>94.33</v>
       </c>
       <c r="H83" t="n">
-        <v>24.97</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="I83" t="n">
-        <v>160.69</v>
+        <v>82</v>
       </c>
       <c r="J83" t="n">
-        <v>10797.66</v>
+        <v>38.93</v>
+      </c>
+      <c r="K83" t="n">
+        <v>163.98</v>
+      </c>
+      <c r="L83" t="n">
+        <v>11502.52</v>
+      </c>
+      <c r="M83" t="n">
+        <v>6.29</v>
       </c>
     </row>
     <row r="84">
@@ -3618,25 +4361,34 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>11.37</v>
+        <v>11.38</v>
       </c>
       <c r="E84" t="n">
-        <v>32.3</v>
+        <v>32.15</v>
       </c>
       <c r="F84" t="n">
-        <v>20.93</v>
+        <v>20.77</v>
       </c>
       <c r="G84" t="n">
-        <v>87.58</v>
+        <v>86</v>
       </c>
       <c r="H84" t="n">
-        <v>24.33</v>
+        <v>86.29000000000001</v>
       </c>
       <c r="I84" t="n">
-        <v>162.12</v>
+        <v>73.88</v>
       </c>
       <c r="J84" t="n">
-        <v>10284.41</v>
+        <v>35.47</v>
+      </c>
+      <c r="K84" t="n">
+        <v>160.62</v>
+      </c>
+      <c r="L84" t="n">
+        <v>10013</v>
+      </c>
+      <c r="M84" t="n">
+        <v>14.57</v>
       </c>
     </row>
     <row r="85">
@@ -3668,13 +4420,22 @@
         <v>92.53</v>
       </c>
       <c r="H85" t="n">
-        <v>25.85</v>
+        <v>92.76000000000001</v>
       </c>
       <c r="I85" t="n">
+        <v>79.01000000000001</v>
+      </c>
+      <c r="J85" t="n">
+        <v>38.45</v>
+      </c>
+      <c r="K85" t="n">
         <v>170.13</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>11009.43</v>
+      </c>
+      <c r="M85" t="n">
+        <v>8.08</v>
       </c>
     </row>
     <row r="86">
@@ -3694,25 +4455,34 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>10.17</v>
+        <v>10.29</v>
       </c>
       <c r="E86" t="n">
         <v>30.57</v>
       </c>
       <c r="F86" t="n">
-        <v>20.4</v>
+        <v>20.29</v>
       </c>
       <c r="G86" t="n">
-        <v>95.63</v>
+        <v>94.93000000000001</v>
       </c>
       <c r="H86" t="n">
-        <v>26.53</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="I86" t="n">
-        <v>165.56</v>
+        <v>83.79000000000001</v>
       </c>
       <c r="J86" t="n">
-        <v>11256.62</v>
+        <v>39.27</v>
+      </c>
+      <c r="K86" t="n">
+        <v>167.12</v>
+      </c>
+      <c r="L86" t="n">
+        <v>11257.46</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="87">
@@ -3732,25 +4502,34 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>10.73</v>
+        <v>10.71</v>
       </c>
       <c r="E87" t="n">
-        <v>31.03</v>
+        <v>31</v>
       </c>
       <c r="F87" t="n">
-        <v>20.3</v>
+        <v>20.29</v>
       </c>
       <c r="G87" t="n">
-        <v>93.5</v>
+        <v>94.56999999999999</v>
       </c>
       <c r="H87" t="n">
-        <v>24.61</v>
+        <v>94.76000000000001</v>
       </c>
       <c r="I87" t="n">
-        <v>144.6</v>
+        <v>83.89</v>
       </c>
       <c r="J87" t="n">
-        <v>9743.540000000001</v>
+        <v>37.43</v>
+      </c>
+      <c r="K87" t="n">
+        <v>146.34</v>
+      </c>
+      <c r="L87" t="n">
+        <v>9902.799999999999</v>
+      </c>
+      <c r="M87" t="n">
+        <v>6.05</v>
       </c>
     </row>
     <row r="88">
@@ -3782,13 +4561,22 @@
         <v>86.8</v>
       </c>
       <c r="H88" t="n">
-        <v>23.45</v>
+        <v>87.08</v>
       </c>
       <c r="I88" t="n">
+        <v>76.93000000000001</v>
+      </c>
+      <c r="J88" t="n">
+        <v>35</v>
+      </c>
+      <c r="K88" t="n">
         <v>155.41</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>9924.17</v>
+      </c>
+      <c r="M88" t="n">
+        <v>13.77</v>
       </c>
     </row>
     <row r="89">
@@ -3808,25 +4596,34 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>9.869999999999999</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E89" t="n">
         <v>30</v>
       </c>
       <c r="F89" t="n">
-        <v>20.13</v>
+        <v>20.14</v>
       </c>
       <c r="G89" t="n">
-        <v>100.45</v>
+        <v>100.36</v>
       </c>
       <c r="H89" t="n">
-        <v>27.73</v>
+        <v>100.58</v>
       </c>
       <c r="I89" t="n">
-        <v>164.89</v>
+        <v>89.8</v>
       </c>
       <c r="J89" t="n">
-        <v>11646.64</v>
+        <v>41.53</v>
+      </c>
+      <c r="K89" t="n">
+        <v>165.72</v>
+      </c>
+      <c r="L89" t="n">
+        <v>11696.27</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="90">
@@ -3858,13 +4655,22 @@
         <v>85.67</v>
       </c>
       <c r="H90" t="n">
-        <v>24.01</v>
+        <v>86.06999999999999</v>
       </c>
       <c r="I90" t="n">
+        <v>79.34</v>
+      </c>
+      <c r="J90" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K90" t="n">
         <v>178.01</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>10191.37</v>
+      </c>
+      <c r="M90" t="n">
+        <v>14.9</v>
       </c>
     </row>
     <row r="91">
@@ -3884,25 +4690,34 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>10.8</v>
+        <v>10.86</v>
       </c>
       <c r="E91" t="n">
-        <v>30.83</v>
+        <v>30.86</v>
       </c>
       <c r="F91" t="n">
-        <v>20.03</v>
+        <v>20</v>
       </c>
       <c r="G91" t="n">
-        <v>94.17</v>
+        <v>91.93000000000001</v>
       </c>
       <c r="H91" t="n">
-        <v>25.62</v>
+        <v>92.34</v>
       </c>
       <c r="I91" t="n">
-        <v>150.87</v>
+        <v>79.91</v>
       </c>
       <c r="J91" t="n">
-        <v>10608.5</v>
+        <v>37.36</v>
+      </c>
+      <c r="K91" t="n">
+        <v>149.79</v>
+      </c>
+      <c r="L91" t="n">
+        <v>10273.46</v>
+      </c>
+      <c r="M91" t="n">
+        <v>8.68</v>
       </c>
     </row>
     <row r="92">
@@ -3922,26 +4737,33 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>11.03</v>
+        <v>11</v>
       </c>
       <c r="E92" t="n">
-        <v>29.83</v>
+        <v>30</v>
       </c>
       <c r="F92" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="G92" t="n">
-        <v>180.82</v>
+        <v>185.57</v>
       </c>
       <c r="H92" t="n">
-        <v>42.73</v>
+        <v>184.49</v>
       </c>
       <c r="I92" t="n">
-        <v>122.07</v>
+        <v>171.46</v>
       </c>
       <c r="J92" t="n">
-        <v>15152.64</v>
-      </c>
+        <v>66.54000000000001</v>
+      </c>
+      <c r="K92" t="n">
+        <v>118.95</v>
+      </c>
+      <c r="L92" t="n">
+        <v>15302.13</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3972,13 +4794,22 @@
         <v>203.93</v>
       </c>
       <c r="H93" t="n">
-        <v>57.52</v>
+        <v>202.85</v>
       </c>
       <c r="I93" t="n">
+        <v>190.78</v>
+      </c>
+      <c r="J93" t="n">
+        <v>86.42</v>
+      </c>
+      <c r="K93" t="n">
         <v>148.2</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>23055.95</v>
+      </c>
+      <c r="M93" t="n">
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="94">
@@ -3998,25 +4829,34 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>9.470000000000001</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>29.33</v>
+        <v>29.23</v>
       </c>
       <c r="F94" t="n">
-        <v>19.87</v>
+        <v>19.85</v>
       </c>
       <c r="G94" t="n">
-        <v>167.62</v>
+        <v>170.54</v>
       </c>
       <c r="H94" t="n">
-        <v>43.42</v>
+        <v>170.16</v>
       </c>
       <c r="I94" t="n">
-        <v>130.77</v>
+        <v>153.9</v>
       </c>
       <c r="J94" t="n">
-        <v>16871.48</v>
+        <v>67.59999999999999</v>
+      </c>
+      <c r="K94" t="n">
+        <v>132.88</v>
+      </c>
+      <c r="L94" t="n">
+        <v>17422.59</v>
+      </c>
+      <c r="M94" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="95">
@@ -4036,25 +4876,34 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>10.53</v>
+        <v>10.43</v>
       </c>
       <c r="E95" t="n">
-        <v>32.33</v>
+        <v>32.29</v>
       </c>
       <c r="F95" t="n">
-        <v>21.8</v>
+        <v>21.86</v>
       </c>
       <c r="G95" t="n">
-        <v>184.85</v>
+        <v>186.71</v>
       </c>
       <c r="H95" t="n">
-        <v>48.65</v>
+        <v>184.35</v>
       </c>
       <c r="I95" t="n">
-        <v>128.63</v>
+        <v>173.98</v>
       </c>
       <c r="J95" t="n">
-        <v>19140.05</v>
+        <v>73.92</v>
+      </c>
+      <c r="K95" t="n">
+        <v>131.03</v>
+      </c>
+      <c r="L95" t="n">
+        <v>19362.77</v>
+      </c>
+      <c r="M95" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="96">
@@ -4086,13 +4935,22 @@
         <v>192.2</v>
       </c>
       <c r="H96" t="n">
-        <v>51.63</v>
+        <v>189.77</v>
       </c>
       <c r="I96" t="n">
+        <v>177.41</v>
+      </c>
+      <c r="J96" t="n">
+        <v>78.04000000000001</v>
+      </c>
+      <c r="K96" t="n">
         <v>133.02</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>19595.7</v>
+      </c>
+      <c r="M96" t="n">
+        <v>-3.57</v>
       </c>
     </row>
     <row r="97">
@@ -4124,13 +4982,22 @@
         <v>184.87</v>
       </c>
       <c r="H97" t="n">
-        <v>49.14</v>
+        <v>184.27</v>
       </c>
       <c r="I97" t="n">
+        <v>171.97</v>
+      </c>
+      <c r="J97" t="n">
+        <v>74.14</v>
+      </c>
+      <c r="K97" t="n">
         <v>142.83</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>18851.47</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="98">
@@ -4150,25 +5017,34 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>10.07</v>
+        <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>30.27</v>
+        <v>30.29</v>
       </c>
       <c r="F98" t="n">
-        <v>20.2</v>
+        <v>20.29</v>
       </c>
       <c r="G98" t="n">
-        <v>176.43</v>
+        <v>178.79</v>
       </c>
       <c r="H98" t="n">
-        <v>45.98</v>
+        <v>178.84</v>
       </c>
       <c r="I98" t="n">
-        <v>149.55</v>
+        <v>163.8</v>
       </c>
       <c r="J98" t="n">
-        <v>18246.5</v>
+        <v>69.63</v>
+      </c>
+      <c r="K98" t="n">
+        <v>145.55</v>
+      </c>
+      <c r="L98" t="n">
+        <v>18207.12</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3.66</v>
       </c>
     </row>
     <row r="99">
@@ -4200,13 +5076,22 @@
         <v>197.73</v>
       </c>
       <c r="H99" t="n">
-        <v>52.07</v>
+        <v>197.81</v>
       </c>
       <c r="I99" t="n">
+        <v>181.72</v>
+      </c>
+      <c r="J99" t="n">
+        <v>78.95999999999999</v>
+      </c>
+      <c r="K99" t="n">
         <v>139.66</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>19856.2</v>
+      </c>
+      <c r="M99" t="n">
+        <v>-6.55</v>
       </c>
     </row>
     <row r="100">
@@ -4238,13 +5123,22 @@
         <v>162.73</v>
       </c>
       <c r="H100" t="n">
-        <v>39.36</v>
+        <v>162.71</v>
       </c>
       <c r="I100" t="n">
+        <v>151</v>
+      </c>
+      <c r="J100" t="n">
+        <v>59.86</v>
+      </c>
+      <c r="K100" t="n">
         <v>116.47</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>14202.66</v>
+      </c>
+      <c r="M100" t="n">
+        <v>12.31</v>
       </c>
     </row>
     <row r="101">
@@ -4264,25 +5158,34 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>11.73</v>
+        <v>11.86</v>
       </c>
       <c r="E101" t="n">
-        <v>29.93</v>
+        <v>30.14</v>
       </c>
       <c r="F101" t="n">
-        <v>18.2</v>
+        <v>18.29</v>
       </c>
       <c r="G101" t="n">
-        <v>173.78</v>
+        <v>166.43</v>
       </c>
       <c r="H101" t="n">
-        <v>46.47</v>
+        <v>166.81</v>
       </c>
       <c r="I101" t="n">
-        <v>120.23</v>
+        <v>152.2</v>
       </c>
       <c r="J101" t="n">
-        <v>19221.24</v>
+        <v>66.53</v>
+      </c>
+      <c r="K101" t="n">
+        <v>118.72</v>
+      </c>
+      <c r="L101" t="n">
+        <v>18315.49</v>
+      </c>
+      <c r="M101" t="n">
+        <v>10.32</v>
       </c>
     </row>
     <row r="102">
@@ -4314,13 +5217,22 @@
         <v>171.5</v>
       </c>
       <c r="H102" t="n">
-        <v>48.27</v>
+        <v>169.24</v>
       </c>
       <c r="I102" t="n">
+        <v>157.31</v>
+      </c>
+      <c r="J102" t="n">
+        <v>72.56999999999999</v>
+      </c>
+      <c r="K102" t="n">
         <v>149.71</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>18712.48</v>
+      </c>
+      <c r="M102" t="n">
+        <v>7.58</v>
       </c>
     </row>
     <row r="103">
@@ -4340,25 +5252,34 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>30.93</v>
+        <v>30.8</v>
       </c>
       <c r="F103" t="n">
-        <v>22.33</v>
+        <v>21.6</v>
       </c>
       <c r="G103" t="n">
-        <v>144.69</v>
+        <v>163.6</v>
       </c>
       <c r="H103" t="n">
-        <v>37.07</v>
+        <v>163.49</v>
       </c>
       <c r="I103" t="n">
-        <v>137.99</v>
+        <v>148.19</v>
       </c>
       <c r="J103" t="n">
-        <v>14144.71</v>
+        <v>62.86</v>
+      </c>
+      <c r="K103" t="n">
+        <v>134.02</v>
+      </c>
+      <c r="L103" t="n">
+        <v>15766.32</v>
+      </c>
+      <c r="M103" t="n">
+        <v>11.84</v>
       </c>
     </row>
     <row r="104">
@@ -4378,25 +5299,34 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>10.77</v>
+        <v>10.86</v>
       </c>
       <c r="E104" t="n">
-        <v>29.67</v>
+        <v>29.57</v>
       </c>
       <c r="F104" t="n">
-        <v>18.9</v>
+        <v>18.71</v>
       </c>
       <c r="G104" t="n">
-        <v>155.22</v>
+        <v>154.79</v>
       </c>
       <c r="H104" t="n">
-        <v>41.2</v>
+        <v>154.81</v>
       </c>
       <c r="I104" t="n">
-        <v>141.04</v>
+        <v>142.36</v>
       </c>
       <c r="J104" t="n">
-        <v>16637.58</v>
+        <v>62.39</v>
+      </c>
+      <c r="K104" t="n">
+        <v>142.48</v>
+      </c>
+      <c r="L104" t="n">
+        <v>16823.19</v>
+      </c>
+      <c r="M104" t="n">
+        <v>16.59</v>
       </c>
     </row>
     <row r="105">
@@ -4428,13 +5358,22 @@
         <v>161.33</v>
       </c>
       <c r="H105" t="n">
-        <v>42.98</v>
+        <v>161.62</v>
       </c>
       <c r="I105" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>64.93000000000001</v>
+      </c>
+      <c r="K105" t="n">
         <v>141.04</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>16972.13</v>
+      </c>
+      <c r="M105" t="n">
+        <v>13.06</v>
       </c>
     </row>
     <row r="106">
@@ -4466,13 +5405,22 @@
         <v>168.25</v>
       </c>
       <c r="H106" t="n">
-        <v>44.6</v>
+        <v>168.49</v>
       </c>
       <c r="I106" t="n">
+        <v>151.19</v>
+      </c>
+      <c r="J106" t="n">
+        <v>67.11</v>
+      </c>
+      <c r="K106" t="n">
         <v>138.33</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>17854.01</v>
+      </c>
+      <c r="M106" t="n">
+        <v>9.33</v>
       </c>
     </row>
     <row r="107">
@@ -4504,13 +5452,22 @@
         <v>169.56</v>
       </c>
       <c r="H107" t="n">
-        <v>45.06</v>
+        <v>169.46</v>
       </c>
       <c r="I107" t="n">
+        <v>150.28</v>
+      </c>
+      <c r="J107" t="n">
+        <v>67.68000000000001</v>
+      </c>
+      <c r="K107" t="n">
         <v>139.94</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>18263.15</v>
+      </c>
+      <c r="M107" t="n">
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4542,13 +5499,22 @@
         <v>152.67</v>
       </c>
       <c r="H108" t="n">
-        <v>39.94</v>
+        <v>152.88</v>
       </c>
       <c r="I108" t="n">
+        <v>137.65</v>
+      </c>
+      <c r="J108" t="n">
+        <v>60.32</v>
+      </c>
+      <c r="K108" t="n">
         <v>154.19</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>15739.42</v>
+      </c>
+      <c r="M108" t="n">
+        <v>17.73</v>
       </c>
     </row>
     <row r="109">
@@ -4568,25 +5534,34 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>10.37</v>
+        <v>10.29</v>
       </c>
       <c r="E109" t="n">
-        <v>30.47</v>
+        <v>30.43</v>
       </c>
       <c r="F109" t="n">
-        <v>20.1</v>
+        <v>20.14</v>
       </c>
       <c r="G109" t="n">
-        <v>167.2</v>
+        <v>168.64</v>
       </c>
       <c r="H109" t="n">
-        <v>44.71</v>
+        <v>168.56</v>
       </c>
       <c r="I109" t="n">
-        <v>146.76</v>
+        <v>149.38</v>
       </c>
       <c r="J109" t="n">
-        <v>18092.71</v>
+        <v>67.8</v>
+      </c>
+      <c r="K109" t="n">
+        <v>148.59</v>
+      </c>
+      <c r="L109" t="n">
+        <v>18342.79</v>
+      </c>
+      <c r="M109" t="n">
+        <v>9.119999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Peakfinder Results/OVERVIEW.xlsx
+++ b/Peakfinder Results/OVERVIEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,11 +494,6 @@
           <t>AUC</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -543,7 +538,6 @@
       <c r="L2" t="n">
         <v>8086.59</v>
       </c>
-      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -588,9 +582,6 @@
       <c r="L3" t="n">
         <v>8297.42</v>
       </c>
-      <c r="M3" t="n">
-        <v>-1.08</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -635,9 +626,6 @@
       <c r="L4" t="n">
         <v>6769.88</v>
       </c>
-      <c r="M4" t="n">
-        <v>21.58</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -682,9 +670,6 @@
       <c r="L5" t="n">
         <v>9050.530000000001</v>
       </c>
-      <c r="M5" t="n">
-        <v>-8.369999999999999</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -729,9 +714,6 @@
       <c r="L6" t="n">
         <v>8995.629999999999</v>
       </c>
-      <c r="M6" t="n">
-        <v>-2.17</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -776,9 +758,6 @@
       <c r="L7" t="n">
         <v>9095.33</v>
       </c>
-      <c r="M7" t="n">
-        <v>-9.16</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -823,9 +802,6 @@
       <c r="L8" t="n">
         <v>9596.530000000001</v>
       </c>
-      <c r="M8" t="n">
-        <v>-12.09</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -870,9 +846,6 @@
       <c r="L9" t="n">
         <v>9241.83</v>
       </c>
-      <c r="M9" t="n">
-        <v>-10.16</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -917,9 +890,6 @@
       <c r="L10" t="n">
         <v>8327.26</v>
       </c>
-      <c r="M10" t="n">
-        <v>5.22</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -964,9 +934,6 @@
       <c r="L11" t="n">
         <v>6687.61</v>
       </c>
-      <c r="M11" t="n">
-        <v>21.58</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1011,9 +978,6 @@
       <c r="L12" t="n">
         <v>7193.61</v>
       </c>
-      <c r="M12" t="n">
-        <v>19.21</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1058,9 +1022,6 @@
       <c r="L13" t="n">
         <v>7373.91</v>
       </c>
-      <c r="M13" t="n">
-        <v>10.9</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1105,9 +1066,6 @@
       <c r="L14" t="n">
         <v>6408.42</v>
       </c>
-      <c r="M14" t="n">
-        <v>26.99</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1152,9 +1110,6 @@
       <c r="L15" t="n">
         <v>6578.64</v>
       </c>
-      <c r="M15" t="n">
-        <v>22.39</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1199,9 +1154,6 @@
       <c r="L16" t="n">
         <v>6937.2</v>
       </c>
-      <c r="M16" t="n">
-        <v>17.44</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1246,9 +1198,6 @@
       <c r="L17" t="n">
         <v>6149.66</v>
       </c>
-      <c r="M17" t="n">
-        <v>23.05</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1293,9 +1242,6 @@
       <c r="L18" t="n">
         <v>6673.87</v>
       </c>
-      <c r="M18" t="n">
-        <v>18.8</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1340,9 +1286,6 @@
       <c r="L19" t="n">
         <v>8780.530000000001</v>
       </c>
-      <c r="M19" t="n">
-        <v>-0.89</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1387,7 +1330,6 @@
       <c r="L20" t="n">
         <v>19597.47</v>
       </c>
-      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1432,9 +1374,6 @@
       <c r="L21" t="n">
         <v>17002.57</v>
       </c>
-      <c r="M21" t="n">
-        <v>5.9</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1479,9 +1418,6 @@
       <c r="L22" t="n">
         <v>13295.9</v>
       </c>
-      <c r="M22" t="n">
-        <v>30.27</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1526,9 +1462,6 @@
       <c r="L23" t="n">
         <v>18497.02</v>
       </c>
-      <c r="M23" t="n">
-        <v>4.04</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1573,9 +1506,6 @@
       <c r="L24" t="n">
         <v>17858.07</v>
       </c>
-      <c r="M24" t="n">
-        <v>4.04</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1620,9 +1550,6 @@
       <c r="L25" t="n">
         <v>17744.45</v>
       </c>
-      <c r="M25" t="n">
-        <v>7.78</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1667,9 +1594,6 @@
       <c r="L26" t="n">
         <v>16269.75</v>
       </c>
-      <c r="M26" t="n">
-        <v>11.92</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1714,9 +1638,6 @@
       <c r="L27" t="n">
         <v>17483.92</v>
       </c>
-      <c r="M27" t="n">
-        <v>8.65</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1761,9 +1682,6 @@
       <c r="L28" t="n">
         <v>15946.82</v>
       </c>
-      <c r="M28" t="n">
-        <v>13.83</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1808,9 +1726,6 @@
       <c r="L29" t="n">
         <v>16974.99</v>
       </c>
-      <c r="M29" t="n">
-        <v>11.26</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1855,9 +1770,6 @@
       <c r="L30" t="n">
         <v>15278.49</v>
       </c>
-      <c r="M30" t="n">
-        <v>16.11</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1902,9 +1814,6 @@
       <c r="L31" t="n">
         <v>16129.3</v>
       </c>
-      <c r="M31" t="n">
-        <v>12.95</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1949,9 +1858,6 @@
       <c r="L32" t="n">
         <v>17161.37</v>
       </c>
-      <c r="M32" t="n">
-        <v>13.32</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1996,9 +1902,6 @@
       <c r="L33" t="n">
         <v>17200.31</v>
       </c>
-      <c r="M33" t="n">
-        <v>9.24</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2043,9 +1946,6 @@
       <c r="L34" t="n">
         <v>16910</v>
       </c>
-      <c r="M34" t="n">
-        <v>9.73</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2090,9 +1990,6 @@
       <c r="L35" t="n">
         <v>16552.33</v>
       </c>
-      <c r="M35" t="n">
-        <v>13.5</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2137,9 +2034,6 @@
       <c r="L36" t="n">
         <v>17124.84</v>
       </c>
-      <c r="M36" t="n">
-        <v>13.32</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2184,9 +2078,6 @@
       <c r="L37" t="n">
         <v>16759.24</v>
       </c>
-      <c r="M37" t="n">
-        <v>9.91</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2231,7 +2122,6 @@
       <c r="L38" t="n">
         <v>9512.190000000001</v>
       </c>
-      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2276,9 +2166,6 @@
       <c r="L39" t="n">
         <v>11604.5</v>
       </c>
-      <c r="M39" t="n">
-        <v>-1.18</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2323,9 +2210,6 @@
       <c r="L40" t="n">
         <v>7374.15</v>
       </c>
-      <c r="M40" t="n">
-        <v>31.79</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2370,9 +2254,6 @@
       <c r="L41" t="n">
         <v>10450.18</v>
       </c>
-      <c r="M41" t="n">
-        <v>-3.31</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2417,9 +2298,6 @@
       <c r="L42" t="n">
         <v>9948.34</v>
       </c>
-      <c r="M42" t="n">
-        <v>-3.2</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2464,9 +2342,6 @@
       <c r="L43" t="n">
         <v>8458.34</v>
       </c>
-      <c r="M43" t="n">
-        <v>10.85</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2511,9 +2386,6 @@
       <c r="L44" t="n">
         <v>8544.219999999999</v>
       </c>
-      <c r="M44" t="n">
-        <v>10.3</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2558,9 +2430,6 @@
       <c r="L45" t="n">
         <v>9728.969999999999</v>
       </c>
-      <c r="M45" t="n">
-        <v>1.84</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2605,9 +2474,6 @@
       <c r="L46" t="n">
         <v>9018.780000000001</v>
       </c>
-      <c r="M46" t="n">
-        <v>12.23</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2652,9 +2518,6 @@
       <c r="L47" t="n">
         <v>9912.73</v>
       </c>
-      <c r="M47" t="n">
-        <v>3.63</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2699,9 +2562,6 @@
       <c r="L48" t="n">
         <v>9389.879999999999</v>
       </c>
-      <c r="M48" t="n">
-        <v>13.09</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2746,9 +2606,6 @@
       <c r="L49" t="n">
         <v>8267.1</v>
       </c>
-      <c r="M49" t="n">
-        <v>8.59</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2793,9 +2650,6 @@
       <c r="L50" t="n">
         <v>8415.02</v>
       </c>
-      <c r="M50" t="n">
-        <v>12.53</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2840,9 +2694,6 @@
       <c r="L51" t="n">
         <v>8985.73</v>
       </c>
-      <c r="M51" t="n">
-        <v>11.93</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2887,9 +2738,6 @@
       <c r="L52" t="n">
         <v>9070.780000000001</v>
       </c>
-      <c r="M52" t="n">
-        <v>21.91</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2934,9 +2782,6 @@
       <c r="L53" t="n">
         <v>9248.959999999999</v>
       </c>
-      <c r="M53" t="n">
-        <v>7.75</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2981,9 +2826,6 @@
       <c r="L54" t="n">
         <v>9786.6</v>
       </c>
-      <c r="M54" t="n">
-        <v>7.16</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3028,9 +2870,6 @@
       <c r="L55" t="n">
         <v>7208.94</v>
       </c>
-      <c r="M55" t="n">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3075,7 +2914,6 @@
       <c r="L56" t="n">
         <v>12911.34</v>
       </c>
-      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3120,9 +2958,6 @@
       <c r="L57" t="n">
         <v>11923.71</v>
       </c>
-      <c r="M57" t="n">
-        <v>3.72</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3167,9 +3002,6 @@
       <c r="L58" t="n">
         <v>7474.54</v>
       </c>
-      <c r="M58" t="n">
-        <v>36.17</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3214,9 +3046,6 @@
       <c r="L59" t="n">
         <v>11734.74</v>
       </c>
-      <c r="M59" t="n">
-        <v>5.65</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3261,9 +3090,6 @@
       <c r="L60" t="n">
         <v>11765.8</v>
       </c>
-      <c r="M60" t="n">
-        <v>4.58</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3308,9 +3134,6 @@
       <c r="L61" t="n">
         <v>10999.2</v>
       </c>
-      <c r="M61" t="n">
-        <v>10.11</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3355,9 +3178,6 @@
       <c r="L62" t="n">
         <v>12565.13</v>
       </c>
-      <c r="M62" t="n">
-        <v>1.33</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3402,9 +3222,6 @@
       <c r="L63" t="n">
         <v>10952.81</v>
       </c>
-      <c r="M63" t="n">
-        <v>7.72</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3449,9 +3266,6 @@
       <c r="L64" t="n">
         <v>10042.09</v>
       </c>
-      <c r="M64" t="n">
-        <v>14.99</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3496,9 +3310,6 @@
       <c r="L65" t="n">
         <v>9747.620000000001</v>
       </c>
-      <c r="M65" t="n">
-        <v>20.7</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3543,9 +3354,6 @@
       <c r="L66" t="n">
         <v>9781.77</v>
       </c>
-      <c r="M66" t="n">
-        <v>15.32</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3590,9 +3398,6 @@
       <c r="L67" t="n">
         <v>10378.06</v>
       </c>
-      <c r="M67" t="n">
-        <v>14.05</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3637,9 +3442,6 @@
       <c r="L68" t="n">
         <v>10359.22</v>
       </c>
-      <c r="M68" t="n">
-        <v>14.44</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3684,9 +3486,6 @@
       <c r="L69" t="n">
         <v>10221.67</v>
       </c>
-      <c r="M69" t="n">
-        <v>15.16</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3731,9 +3530,6 @@
       <c r="L70" t="n">
         <v>10795.07</v>
       </c>
-      <c r="M70" t="n">
-        <v>11.44</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3778,9 +3574,6 @@
       <c r="L71" t="n">
         <v>10116.12</v>
       </c>
-      <c r="M71" t="n">
-        <v>17.93</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3825,9 +3618,6 @@
       <c r="L72" t="n">
         <v>11433.97</v>
       </c>
-      <c r="M72" t="n">
-        <v>6.01</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3872,9 +3662,6 @@
       <c r="L73" t="n">
         <v>10932.63</v>
       </c>
-      <c r="M73" t="n">
-        <v>12.23</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3919,7 +3706,6 @@
       <c r="L74" t="n">
         <v>12035</v>
       </c>
-      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3964,9 +3750,6 @@
       <c r="L75" t="n">
         <v>10966.64</v>
       </c>
-      <c r="M75" t="n">
-        <v>0.4</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4011,9 +3794,6 @@
       <c r="L76" t="n">
         <v>8201.620000000001</v>
       </c>
-      <c r="M76" t="n">
-        <v>29.27</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4058,9 +3838,6 @@
       <c r="L77" t="n">
         <v>13783.62</v>
       </c>
-      <c r="M77" t="n">
-        <v>-15.83</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4105,9 +3882,6 @@
       <c r="L78" t="n">
         <v>9685.139999999999</v>
       </c>
-      <c r="M78" t="n">
-        <v>17.75</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4152,9 +3926,6 @@
       <c r="L79" t="n">
         <v>12286.85</v>
       </c>
-      <c r="M79" t="n">
-        <v>-1.61</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4199,9 +3970,6 @@
       <c r="L80" t="n">
         <v>12298.9</v>
       </c>
-      <c r="M80" t="n">
-        <v>-0.03</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4246,9 +4014,6 @@
       <c r="L81" t="n">
         <v>12932.41</v>
       </c>
-      <c r="M81" t="n">
-        <v>-3.91</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4293,9 +4058,6 @@
       <c r="L82" t="n">
         <v>10579.5</v>
       </c>
-      <c r="M82" t="n">
-        <v>6.76</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4340,9 +4102,6 @@
       <c r="L83" t="n">
         <v>11502.52</v>
       </c>
-      <c r="M83" t="n">
-        <v>6.29</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4387,9 +4146,6 @@
       <c r="L84" t="n">
         <v>10013</v>
       </c>
-      <c r="M84" t="n">
-        <v>14.57</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4434,9 +4190,6 @@
       <c r="L85" t="n">
         <v>11009.43</v>
       </c>
-      <c r="M85" t="n">
-        <v>8.08</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4481,9 +4234,6 @@
       <c r="L86" t="n">
         <v>11257.46</v>
       </c>
-      <c r="M86" t="n">
-        <v>5.7</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4528,9 +4278,6 @@
       <c r="L87" t="n">
         <v>9902.799999999999</v>
       </c>
-      <c r="M87" t="n">
-        <v>6.05</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4575,9 +4322,6 @@
       <c r="L88" t="n">
         <v>9924.17</v>
       </c>
-      <c r="M88" t="n">
-        <v>13.77</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4622,9 +4366,6 @@
       <c r="L89" t="n">
         <v>11696.27</v>
       </c>
-      <c r="M89" t="n">
-        <v>0.31</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4669,9 +4410,6 @@
       <c r="L90" t="n">
         <v>10191.37</v>
       </c>
-      <c r="M90" t="n">
-        <v>14.9</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4716,9 +4454,6 @@
       <c r="L91" t="n">
         <v>10273.46</v>
       </c>
-      <c r="M91" t="n">
-        <v>8.68</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4763,7 +4498,6 @@
       <c r="L92" t="n">
         <v>15302.13</v>
       </c>
-      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4808,9 +4542,6 @@
       <c r="L93" t="n">
         <v>23055.95</v>
       </c>
-      <c r="M93" t="n">
-        <v>-9.890000000000001</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4855,9 +4586,6 @@
       <c r="L94" t="n">
         <v>17422.59</v>
       </c>
-      <c r="M94" t="n">
-        <v>8.1</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4902,9 +4630,6 @@
       <c r="L95" t="n">
         <v>19362.77</v>
       </c>
-      <c r="M95" t="n">
-        <v>-0.62</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4949,9 +4674,6 @@
       <c r="L96" t="n">
         <v>19595.7</v>
       </c>
-      <c r="M96" t="n">
-        <v>-3.57</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4996,9 +4718,6 @@
       <c r="L97" t="n">
         <v>18851.47</v>
       </c>
-      <c r="M97" t="n">
-        <v>0.38</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5043,9 +4762,6 @@
       <c r="L98" t="n">
         <v>18207.12</v>
       </c>
-      <c r="M98" t="n">
-        <v>3.66</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5090,9 +4806,6 @@
       <c r="L99" t="n">
         <v>19856.2</v>
       </c>
-      <c r="M99" t="n">
-        <v>-6.55</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5137,9 +4850,6 @@
       <c r="L100" t="n">
         <v>14202.66</v>
       </c>
-      <c r="M100" t="n">
-        <v>12.31</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5184,9 +4894,6 @@
       <c r="L101" t="n">
         <v>18315.49</v>
       </c>
-      <c r="M101" t="n">
-        <v>10.32</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5231,9 +4938,6 @@
       <c r="L102" t="n">
         <v>18712.48</v>
       </c>
-      <c r="M102" t="n">
-        <v>7.58</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5278,9 +4982,6 @@
       <c r="L103" t="n">
         <v>15766.32</v>
       </c>
-      <c r="M103" t="n">
-        <v>11.84</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5325,9 +5026,6 @@
       <c r="L104" t="n">
         <v>16823.19</v>
       </c>
-      <c r="M104" t="n">
-        <v>16.59</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5372,9 +5070,6 @@
       <c r="L105" t="n">
         <v>16972.13</v>
       </c>
-      <c r="M105" t="n">
-        <v>13.06</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5419,9 +5114,6 @@
       <c r="L106" t="n">
         <v>17854.01</v>
       </c>
-      <c r="M106" t="n">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5466,9 +5158,6 @@
       <c r="L107" t="n">
         <v>18263.15</v>
       </c>
-      <c r="M107" t="n">
-        <v>8.630000000000001</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5513,9 +5202,6 @@
       <c r="L108" t="n">
         <v>15739.42</v>
       </c>
-      <c r="M108" t="n">
-        <v>17.73</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5559,9 +5245,6 @@
       </c>
       <c r="L109" t="n">
         <v>18342.79</v>
-      </c>
-      <c r="M109" t="n">
-        <v>9.119999999999999</v>
       </c>
     </row>
   </sheetData>
